--- a/reports/надходження_2022-01-01_2023-03-09_звіт.xlsx
+++ b/reports/надходження_2022-01-01_2023-03-09_звіт.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Постачальник</t>
   </si>
@@ -89,10 +89,13 @@
     <t>Відмінно</t>
   </si>
   <si>
+    <t>ВАТ "ЗерноБуд"</t>
+  </si>
+  <si>
     <t>Елеватор "Дніпро"</t>
   </si>
   <si>
-    <t>ВАТ "ЗерноБуд"</t>
+    <t>Звичайний</t>
   </si>
   <si>
     <t>2023-01-09</t>
@@ -110,25 +113,25 @@
     <t>Ірен</t>
   </si>
   <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>Соя</t>
+  </si>
+  <si>
+    <t>Сія</t>
+  </si>
+  <si>
+    <t>Приміщення "Зернятко" 2</t>
+  </si>
+  <si>
+    <t>Погано</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
     <t>Задовільно</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>Соя</t>
-  </si>
-  <si>
-    <t>Сія</t>
-  </si>
-  <si>
-    <t>Приміщення "Зернятко" 2</t>
-  </si>
-  <si>
-    <t>2022-12-08</t>
-  </si>
-  <si>
-    <t>2023-03-02</t>
   </si>
   <si>
     <t>ПАТ "Зерно"</t>
@@ -471,7 +474,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -566,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>4000</v>
+        <v>4015</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -590,24 +593,24 @@
         <v>0.001</v>
       </c>
       <c r="L3">
-        <v>1100</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>3015</v>
+        <v>2012</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -616,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>0.11</v>
@@ -625,36 +628,36 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="L4">
-        <v>1100</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>235</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>0.14</v>
@@ -671,19 +674,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -692,7 +695,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>0.12</v>
@@ -718,10 +721,10 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>3015</v>
+        <v>2546</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -730,27 +733,27 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I7">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="L7">
-        <v>1100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -759,7 +762,7 @@
         <v>4000</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -768,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>0.01</v>
@@ -785,28 +788,28 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>0.14</v>
@@ -826,34 +829,34 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10">
-        <v>123</v>
-      </c>
-      <c r="G10">
-        <v>123</v>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="J10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K10">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="L10">
         <v>975</v>
@@ -861,145 +864,145 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I11">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="J11">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="K11">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="L11">
-        <v>1100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>4000</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I12">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="J12">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="K12">
-        <v>0.005</v>
+        <v>0.0005</v>
       </c>
       <c r="L12">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="J13">
         <v>0.01</v>
       </c>
       <c r="K13">
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="L13">
-        <v>900</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14">
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J14">
         <v>0.01</v>
@@ -1008,45 +1011,7 @@
         <v>0.001</v>
       </c>
       <c r="L14">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15">
-        <v>0.11</v>
-      </c>
-      <c r="J15">
-        <v>0.01</v>
-      </c>
-      <c r="K15">
-        <v>0.001</v>
-      </c>
-      <c r="L15">
-        <v>1100</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
